--- a/tests/data.gui/test/spectrophotometry/dsl.5/kev.constants.data_full.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.5/kev.constants.data_full.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -320,10 +320,13 @@
     <t xml:space="preserve">7.23640869140625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26080473287424</t>
+    <t xml:space="preserve">0.260804736910933</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995205</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1051,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.995205325948727</v>
+      <c r="A2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7721.28811358761</v>
+        <v>7721.28811358765</v>
       </c>
     </row>
     <row r="3">
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2101.12644517682</v>
+        <v>2101.12644517683</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1256,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>157.275867786807</v>
+        <v>157.275867786775</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>107.284447399935</v>
+        <v>107.284447399913</v>
       </c>
     </row>
     <row r="6">
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>86.7763798348827</v>
+        <v>86.7763798348804</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>59.1937980629807</v>
+        <v>59.1937980629789</v>
       </c>
     </row>
     <row r="7">
@@ -1344,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>139.272319660981</v>
+        <v>139.27231966098</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>95.0034742341378</v>
+        <v>95.0034742341365</v>
       </c>
     </row>
   </sheetData>
@@ -52856,16 +52859,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47187832703199e-08</v>
+        <v>0.0000000547187832703199</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5380888097386e-06</v>
+        <v>0.0000045380888097386</v>
       </c>
       <c r="C2" t="n">
-        <v>9.94577215552286e-05</v>
+        <v>0.0000994577215552286</v>
       </c>
       <c r="D2" t="n">
-        <v>5.79754451071513e-23</v>
+        <v>0.0000000000000000000000579754451071513</v>
       </c>
       <c r="E2" t="n">
         <v>0.0749910479358568</v>
@@ -52874,36 +52877,36 @@
         <v>0.0175043445946905</v>
       </c>
       <c r="G2" t="n">
-        <v>6.93876670958295e-08</v>
+        <v>0.0000000693876670958295</v>
       </c>
       <c r="H2" t="n">
-        <v>5.60084448624455e-22</v>
+        <v>0.000000000000000000000560084448624455</v>
       </c>
       <c r="I2" t="n">
-        <v>3.51876242713012e-24</v>
+        <v>0.00000000000000000000000351876242713012</v>
       </c>
       <c r="J2" t="n">
-        <v>1.84122837776931e-25</v>
+        <v>0.000000000000000000000000184122837776931</v>
       </c>
       <c r="K2" t="n">
-        <v>2.27844477128857e-09</v>
+        <v>0.00000000227844477128857</v>
       </c>
       <c r="L2" t="n">
-        <v>9.93782372210558e-20</v>
+        <v>0.0000000000000000000993782372210558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.47188459996579e-08</v>
+        <v>0.0000000547188459996579</v>
       </c>
       <c r="B3" t="n">
-        <v>4.35655455525535e-06</v>
+        <v>0.00000435655455525535</v>
       </c>
       <c r="C3" t="n">
-        <v>8.43356014660606e-05</v>
+        <v>0.0000843356014660606</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04040634857838e-08</v>
+        <v>0.0000000104040634857838</v>
       </c>
       <c r="E3" t="n">
         <v>0.0719913116987581</v>
@@ -52912,36 +52915,36 @@
         <v>0.0168041680590812</v>
       </c>
       <c r="G3" t="n">
-        <v>6.66122258675391e-08</v>
+        <v>0.0000000666122258675391</v>
       </c>
       <c r="H3" t="n">
-        <v>9.64901719173797e-08</v>
+        <v>0.0000000964901719173797</v>
       </c>
       <c r="I3" t="n">
-        <v>6.06205692007612e-10</v>
+        <v>0.000000000606205692007612</v>
       </c>
       <c r="J3" t="n">
-        <v>3.30419799936373e-11</v>
+        <v>0.0000000000330419799936373</v>
       </c>
       <c r="K3" t="n">
-        <v>1.93201701375313e-09</v>
+        <v>0.00000000193201701375313</v>
       </c>
       <c r="L3" t="n">
-        <v>1.51224665169256e-05</v>
+        <v>0.0000151224665169256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.92615085613206e-08</v>
+        <v>0.0000000392615085613206</v>
       </c>
       <c r="B4" t="n">
-        <v>6.39355731826185e-06</v>
+        <v>0.00000639355731826185</v>
       </c>
       <c r="C4" t="n">
-        <v>6.92619717529754e-05</v>
+        <v>0.0000692619717529754</v>
       </c>
       <c r="D4" t="n">
-        <v>2.52960216856544e-08</v>
+        <v>0.0000000252960216856544</v>
       </c>
       <c r="E4" t="n">
         <v>0.075807041109372</v>
@@ -52950,36 +52953,36 @@
         <v>0.0126962810715122</v>
       </c>
       <c r="G4" t="n">
-        <v>3.61113322404836e-08</v>
+        <v>0.0000000361113322404836</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4703686683647e-07</v>
+        <v>0.00000024703686683647</v>
       </c>
       <c r="I4" t="n">
-        <v>1.11359879725294e-09</v>
+        <v>0.00000000111359879725294</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11965762550194e-10</v>
+        <v>0.000000000111965762550194</v>
       </c>
       <c r="K4" t="n">
-        <v>1.58670010655806e-09</v>
+        <v>0.00000000158670010655806</v>
       </c>
       <c r="L4" t="n">
-        <v>3.01964415469181e-05</v>
+        <v>0.0000301964415469181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.47190869832625e-08</v>
+        <v>0.0000000547190869832625</v>
       </c>
       <c r="B5" t="n">
-        <v>3.9934714763823e-06</v>
+        <v>0.0000039934714763823</v>
       </c>
       <c r="C5" t="n">
-        <v>5.42214398731356e-05</v>
+        <v>0.0000542214398731356</v>
       </c>
       <c r="D5" t="n">
-        <v>4.84079967802492e-08</v>
+        <v>0.0000000484079967802492</v>
       </c>
       <c r="E5" t="n">
         <v>0.0659917171490717</v>
@@ -52988,36 +52991,36 @@
         <v>0.015403814197899</v>
       </c>
       <c r="G5" t="n">
-        <v>6.10614501036297e-08</v>
+        <v>0.0000000610614501036297</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1153477582622e-07</v>
+        <v>0.00000041153477582622</v>
       </c>
       <c r="I5" t="n">
-        <v>2.58550500328122e-09</v>
+        <v>0.00000000258550500328122</v>
       </c>
       <c r="J5" t="n">
-        <v>1.53736952790433e-10</v>
+        <v>0.000000000153736952790433</v>
       </c>
       <c r="K5" t="n">
-        <v>1.2421414269186e-09</v>
+        <v>0.0000000012421414269186</v>
       </c>
       <c r="L5" t="n">
-        <v>4.52373179854375e-05</v>
+        <v>0.0000452373179854375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47193526029351e-08</v>
+        <v>0.0000000547193526029351</v>
       </c>
       <c r="B6" t="n">
-        <v>3.81191190403757e-06</v>
+        <v>0.00000381191190403757</v>
       </c>
       <c r="C6" t="n">
-        <v>3.93323677781818e-05</v>
+        <v>0.0000393323677781818</v>
       </c>
       <c r="D6" t="n">
-        <v>8.86969755013851e-08</v>
+        <v>0.0000000886969755013851</v>
       </c>
       <c r="E6" t="n">
         <v>0.0629917691319522</v>
@@ -53026,112 +53029,112 @@
         <v>0.0147036364525856</v>
       </c>
       <c r="G6" t="n">
-        <v>5.82861952447613e-08</v>
+        <v>0.0000000582861952447613</v>
       </c>
       <c r="H6" t="n">
-        <v>7.19768136176951e-07</v>
+        <v>0.000000719768136176951</v>
       </c>
       <c r="I6" t="n">
-        <v>4.52203133288386e-09</v>
+        <v>0.00000000452203133288386</v>
       </c>
       <c r="J6" t="n">
-        <v>2.81687684889756e-10</v>
+        <v>0.000000000281687684889756</v>
       </c>
       <c r="K6" t="n">
-        <v>9.01052490498022e-10</v>
+        <v>0.000000000901052490498022</v>
       </c>
       <c r="L6" t="n">
-        <v>6.01267311693274e-05</v>
+        <v>0.0000601267311693274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47199290641285e-08</v>
+        <v>0.0000000547199290646137</v>
       </c>
       <c r="B7" t="n">
-        <v>3.63031407955351e-06</v>
+        <v>0.00000363031407952133</v>
       </c>
       <c r="C7" t="n">
-        <v>2.48213232490698e-05</v>
+        <v>0.0000248213232490698</v>
       </c>
       <c r="D7" t="n">
-        <v>1.74472506736073e-07</v>
+        <v>0.000000174472506736073</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0599915006551622</v>
+        <v>0.0599915006551626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0140034566542647</v>
+        <v>0.014003456654389</v>
       </c>
       <c r="G7" t="n">
-        <v>5.55112206378564e-08</v>
+        <v>0.0000000555112206388413</v>
       </c>
       <c r="H7" t="n">
-        <v>1.34839373672954e-06</v>
+        <v>0.00000134839373672955</v>
       </c>
       <c r="I7" t="n">
-        <v>8.47153778587647e-09</v>
+        <v>0.00000000847153778595165</v>
       </c>
       <c r="J7" t="n">
-        <v>5.54091483643189e-10</v>
+        <v>0.000000000554091483638275</v>
       </c>
       <c r="K7" t="n">
-        <v>5.68623665301869e-10</v>
+        <v>0.000000000568623665301869</v>
       </c>
       <c r="L7" t="n">
-        <v>7.46381081272649e-05</v>
+        <v>0.0000746381081272649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.4721704157282e-08</v>
+        <v>0.0000000547217041572824</v>
       </c>
       <c r="B8" t="n">
-        <v>3.44857096967139e-06</v>
+        <v>0.00000344857096967137</v>
       </c>
       <c r="C8" t="n">
-        <v>1.17085791598221e-05</v>
+        <v>0.0000117085791598221</v>
       </c>
       <c r="D8" t="n">
-        <v>4.34850467935639e-07</v>
+        <v>0.000000434850467935638</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0569900163786538</v>
+        <v>0.056990016378654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0133032696970997</v>
+        <v>0.0133032696970998</v>
       </c>
       <c r="G8" t="n">
-        <v>5.27373143375151e-08</v>
+        <v>0.0000000527373143375162</v>
       </c>
       <c r="H8" t="n">
-        <v>3.19255746772346e-06</v>
+        <v>0.00000319255746772346</v>
       </c>
       <c r="I8" t="n">
-        <v>2.00584946682668e-08</v>
+        <v>0.0000000200584946682668</v>
       </c>
       <c r="J8" t="n">
-        <v>1.38095754728071e-09</v>
+        <v>0.0000000013809575472807</v>
       </c>
       <c r="K8" t="n">
-        <v>2.68228052571073e-10</v>
+        <v>0.000000000268228052571073</v>
       </c>
       <c r="L8" t="n">
-        <v>8.77511526121254e-05</v>
+        <v>0.0000877511526121254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.47282547180105e-08</v>
+        <v>0.0000000547282547180105</v>
       </c>
       <c r="B9" t="n">
-        <v>3.26627425219766e-06</v>
+        <v>0.00000326627425219766</v>
       </c>
       <c r="C9" t="n">
-        <v>3.98442204043708e-06</v>
+        <v>0.00000398442204043708</v>
       </c>
       <c r="D9" t="n">
-        <v>1.39032987751582e-06</v>
+        <v>0.00000139032987751582</v>
       </c>
       <c r="E9" t="n">
         <v>0.0539838987204805</v>
@@ -53140,36 +53143,36 @@
         <v>0.0126030553866497</v>
       </c>
       <c r="G9" t="n">
-        <v>4.99674795716529e-08</v>
+        <v>0.0000000499674795716529</v>
       </c>
       <c r="H9" t="n">
-        <v>9.66901205660433e-06</v>
+        <v>0.00000966901205660433</v>
       </c>
       <c r="I9" t="n">
-        <v>6.07566333205781e-08</v>
+        <v>0.0000000607566333205781</v>
       </c>
       <c r="J9" t="n">
-        <v>4.41475144024077e-09</v>
+        <v>0.00000000441475144024077</v>
       </c>
       <c r="K9" t="n">
-        <v>9.12778356741228e-11</v>
+        <v>0.0000000000912778356741228</v>
       </c>
       <c r="L9" t="n">
-        <v>9.54754866817273e-05</v>
+        <v>0.0000954754866817273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.47405529809693e-08</v>
+        <v>0.0000000547405529809693</v>
       </c>
       <c r="B10" t="n">
-        <v>3.08340982244262e-06</v>
+        <v>0.00000308340982244262</v>
       </c>
       <c r="C10" t="n">
-        <v>1.78092430758639e-06</v>
+        <v>0.00000178092430758639</v>
       </c>
       <c r="D10" t="n">
-        <v>3.18234461151993e-06</v>
+        <v>0.00000318234461151993</v>
       </c>
       <c r="E10" t="n">
         <v>0.0509730278421854</v>
@@ -53178,36 +53181,36 @@
         <v>0.0119028130400946</v>
       </c>
       <c r="G10" t="n">
-        <v>4.72018252128738e-08</v>
+        <v>0.0000000472018252128738</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08971778460114e-05</v>
+        <v>0.0000208971778460114</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3133994167196e-07</v>
+        <v>0.00000013133994167196</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01027132575516e-08</v>
+        <v>0.0000000101027132575516</v>
       </c>
       <c r="K10" t="n">
-        <v>4.0798618882775e-11</v>
+        <v>0.000000000040798618882775</v>
       </c>
       <c r="L10" t="n">
-        <v>9.76790348942691e-05</v>
+        <v>0.0000976790348942691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.47555064681314e-08</v>
+        <v>0.0000000547555064681314</v>
       </c>
       <c r="B11" t="n">
-        <v>2.90042670256754e-06</v>
+        <v>0.00000290042670256754</v>
       </c>
       <c r="C11" t="n">
-        <v>1.06505022962924e-06</v>
+        <v>0.00000106505022962924</v>
       </c>
       <c r="D11" t="n">
-        <v>5.36035952075744e-06</v>
+        <v>0.00000536035952075744</v>
       </c>
       <c r="E11" t="n">
         <v>0.0479611618387634</v>
@@ -53216,36 +53219,36 @@
         <v>0.0112025655947886</v>
       </c>
       <c r="G11" t="n">
-        <v>4.44370577537392e-08</v>
+        <v>0.0000000444370577537392</v>
       </c>
       <c r="H11" t="n">
-        <v>3.31194879802663e-05</v>
+        <v>0.0000331194879802663</v>
       </c>
       <c r="I11" t="n">
-        <v>2.08214712903914e-07</v>
+        <v>0.000000208214712903914</v>
       </c>
       <c r="J11" t="n">
-        <v>1.70124208840777e-08</v>
+        <v>0.0000000170124208840777</v>
       </c>
       <c r="K11" t="n">
-        <v>2.43988911963052e-11</v>
+        <v>0.0000000000243988911963052</v>
       </c>
       <c r="L11" t="n">
-        <v>9.83949253716576e-05</v>
+        <v>0.0000983949253716576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.4772558780335e-08</v>
+        <v>0.000000054772558780335</v>
       </c>
       <c r="B12" t="n">
-        <v>2.71743478110158e-06</v>
+        <v>0.00000271743478110158</v>
       </c>
       <c r="C12" t="n">
-        <v>7.30374138892539e-07</v>
+        <v>0.000000730374138892539</v>
       </c>
       <c r="D12" t="n">
-        <v>7.84320089175845e-06</v>
+        <v>0.00000784320089175845</v>
       </c>
       <c r="E12" t="n">
         <v>0.0449492199987727</v>
@@ -53254,22 +53257,22 @@
         <v>0.0105023186236067</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1672371881665e-08</v>
+        <v>0.000000041672371881665</v>
       </c>
       <c r="H12" t="n">
-        <v>4.54166920335057e-05</v>
+        <v>0.0000454166920335057</v>
       </c>
       <c r="I12" t="n">
-        <v>2.85613366930644e-07</v>
+        <v>0.000000285613366930644</v>
       </c>
       <c r="J12" t="n">
-        <v>2.48845796385165e-08</v>
+        <v>0.0000000248845796385165</v>
       </c>
       <c r="K12" t="n">
-        <v>1.67319048920704e-11</v>
+        <v>0.0000000000167319048920704</v>
       </c>
       <c r="L12" t="n">
-        <v>9.87296091292025e-05</v>
+        <v>0.0000987296091292025</v>
       </c>
     </row>
   </sheetData>
@@ -53350,22 +53353,22 @@
         <v>1.20512041454346</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04383685779536</v>
+        <v>1.04383685779537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.89809476450921</v>
+        <v>0.898094764509187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.812244326203654</v>
+        <v>0.812244326203658</v>
       </c>
       <c r="K2" t="n">
-        <v>0.787753466784512</v>
+        <v>0.787753466784516</v>
       </c>
       <c r="L2" t="n">
-        <v>0.779796857094681</v>
+        <v>0.779796857094686</v>
       </c>
       <c r="M2" t="n">
-        <v>0.776077086944143</v>
+        <v>0.776077086944147</v>
       </c>
     </row>
     <row r="3">
@@ -53394,7 +53397,7 @@
         <v>1.0891605338446</v>
       </c>
       <c r="I3" t="n">
-        <v>1.12903036398507</v>
+        <v>1.12903036398508</v>
       </c>
       <c r="J3" t="n">
         <v>1.15251597693016</v>
@@ -53426,16 +53429,16 @@
         <v>0.495086290248636</v>
       </c>
       <c r="F4" t="n">
-        <v>0.637599469993178</v>
+        <v>0.637599469993177</v>
       </c>
       <c r="G4" t="n">
-        <v>0.778677526583828</v>
+        <v>0.778677526583827</v>
       </c>
       <c r="H4" t="n">
-        <v>0.916173667929095</v>
+        <v>0.916173667929094</v>
       </c>
       <c r="I4" t="n">
-        <v>1.04042052769872</v>
+        <v>1.04042052769874</v>
       </c>
       <c r="J4" t="n">
         <v>1.11360904262123</v>
@@ -53458,37 +53461,37 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00661405236927859</v>
+        <v>-0.0066140523692797</v>
       </c>
       <c r="D5" t="n">
         <v>-0.0166894316887962</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00822586287766858</v>
+        <v>-0.00822586287766791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0106055730608583</v>
+        <v>0.0106055730608599</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0211204145434625</v>
+        <v>0.0211204145434649</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0348368577953646</v>
+        <v>0.0348368577953677</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0420947645092097</v>
+        <v>0.0420947645091874</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0127556737963463</v>
+        <v>-0.0127556737963419</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0212465332154884</v>
+        <v>-0.021246533215484</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.024203142905319</v>
+        <v>-0.0242031429053144</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0189229130558572</v>
+        <v>-0.0189229130558527</v>
       </c>
     </row>
     <row r="6">
@@ -53499,16 +53502,16 @@
         <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0182255382014919</v>
+        <v>0.0182255382014921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00220495755226202</v>
+        <v>0.00220495755226224</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00496306005178893</v>
+        <v>-0.00496306005178881</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0112317129599782</v>
+        <v>-0.011231712959978</v>
       </c>
       <c r="G6" t="n">
         <v>-0.0119608854859901</v>
@@ -53517,7 +53520,7 @@
         <v>-0.0228394661553952</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00796963601493017</v>
+        <v>-0.0079696360149244</v>
       </c>
       <c r="J6" t="n">
         <v>0.0115159769301645</v>
@@ -53540,37 +53543,37 @@
         <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00397324893672479</v>
+        <v>0.00397324893672543</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00425949942330656</v>
+        <v>0.00425949942330672</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00208629024863621</v>
+        <v>0.00208629024863594</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00640053000682184</v>
+        <v>-0.00640053000682261</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00532247341617165</v>
+        <v>-0.00532247341617287</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0198263320709048</v>
+        <v>-0.0198263320709064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00157947230127742</v>
+        <v>-0.00157947230125899</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0376090426212274</v>
+        <v>0.0376090426212252</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0294877901987614</v>
+        <v>0.0294877901987589</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00572910585851716</v>
+        <v>-0.00572910585851938</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0385579577750985</v>
+        <v>-0.0385579577751007</v>
       </c>
     </row>
   </sheetData>
@@ -53651,22 +53654,22 @@
         <v>1.20512041454346</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04383685779536</v>
+        <v>1.04383685779537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.89809476450921</v>
+        <v>0.898094764509187</v>
       </c>
       <c r="J2" t="n">
-        <v>0.812244326203654</v>
+        <v>0.812244326203658</v>
       </c>
       <c r="K2" t="n">
-        <v>0.787753466784512</v>
+        <v>0.787753466784516</v>
       </c>
       <c r="L2" t="n">
-        <v>0.779796857094681</v>
+        <v>0.779796857094686</v>
       </c>
       <c r="M2" t="n">
-        <v>0.776077086944143</v>
+        <v>0.776077086944147</v>
       </c>
     </row>
     <row r="3">
@@ -53695,7 +53698,7 @@
         <v>1.0891605338446</v>
       </c>
       <c r="I3" t="n">
-        <v>1.12903036398507</v>
+        <v>1.12903036398508</v>
       </c>
       <c r="J3" t="n">
         <v>1.15251597693016</v>
@@ -53727,16 +53730,16 @@
         <v>0.495086290248636</v>
       </c>
       <c r="F4" t="n">
-        <v>0.637599469993178</v>
+        <v>0.637599469993177</v>
       </c>
       <c r="G4" t="n">
-        <v>0.778677526583828</v>
+        <v>0.778677526583827</v>
       </c>
       <c r="H4" t="n">
-        <v>0.916173667929095</v>
+        <v>0.916173667929094</v>
       </c>
       <c r="I4" t="n">
-        <v>1.04042052769872</v>
+        <v>1.04042052769874</v>
       </c>
       <c r="J4" t="n">
         <v>1.11360904262123</v>
@@ -53759,37 +53762,37 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00351811296238223</v>
+        <v>-0.00351811296238282</v>
       </c>
       <c r="D5" t="n">
         <v>-0.00969188832101987</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00532073924816855</v>
+        <v>-0.00532073924816812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00779821548592522</v>
+        <v>0.00779821548592636</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0178381879590055</v>
+        <v>0.0178381879590075</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0345261226911443</v>
+        <v>0.0345261226911474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0491761267630954</v>
+        <v>0.0491761267630694</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0154614227834501</v>
+        <v>-0.0154614227834447</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0262627110203812</v>
+        <v>-0.0262627110203757</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0301034115737798</v>
+        <v>-0.0301034115737742</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0238024063595689</v>
+        <v>-0.0238024063595631</v>
       </c>
     </row>
     <row r="6">
@@ -53800,16 +53803,16 @@
         <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0215942395752273</v>
+        <v>0.0215942395752276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00243372798262916</v>
+        <v>0.00243372798262941</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00517524510092693</v>
+        <v>-0.00517524510092681</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0111095083679309</v>
+        <v>-0.0111095083679308</v>
       </c>
       <c r="G6" t="n">
         <v>-0.0113158803084107</v>
@@ -53818,7 +53821,7 @@
         <v>-0.0205390882692403</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00700935445464395</v>
+        <v>-0.00700935445463887</v>
       </c>
       <c r="J6" t="n">
         <v>0.0100928807451047</v>
@@ -53841,37 +53844,37 @@
         <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0193817021303648</v>
+        <v>0.019381702130368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0122399408715706</v>
+        <v>0.012239940871571</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00423182606214242</v>
+        <v>0.00423182606214186</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00993871119071714</v>
+        <v>-0.00993871119071834</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00678886915328016</v>
+        <v>-0.00678886915328172</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0211819787082316</v>
+        <v>-0.0211819787082334</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00151580835055414</v>
+        <v>-0.00151580835053646</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0349526418412894</v>
+        <v>0.0349526418412874</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0266857829853044</v>
+        <v>0.0266857829853022</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0049948612541562</v>
+        <v>-0.00499486125415813</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0325933709003369</v>
+        <v>-0.0325933709003387</v>
       </c>
     </row>
   </sheetData>
